--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>Sl no</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Test Status</t>
   </si>
   <si>
     <t>Enter a valid user name and password.</t>
@@ -137,20 +134,6 @@
   </si>
   <si>
     <r>
-      <t>Validate the medias for "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Yeasarday".</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Validate the medias for </t>
     </r>
     <r>
@@ -267,11 +250,6 @@
   <si>
     <t>1. Go to dash board.
 2. select the date picker
-3. select the date as yestarday</t>
-  </si>
-  <si>
-    <t>1. Go to dash board.
-2. select the date picker
 3. select the date as this week</t>
   </si>
   <si>
@@ -323,16 +301,7 @@
     <t xml:space="preserve">check the recent monitor updated(last 10) </t>
   </si>
   <si>
-    <t>1. Goto dash board&gt;Recent monitors</t>
-  </si>
-  <si>
     <t xml:space="preserve">This list should shows the most recent monitors(shared/received) </t>
-  </si>
-  <si>
-    <t>1. Goto dash board&gt;shared</t>
-  </si>
-  <si>
-    <t>1. Goto dash board&gt;Inbox</t>
   </si>
   <si>
     <t>check the inbox count for the selected date range.</t>
@@ -345,15 +314,9 @@
     <t>This should show the number of monitors that the user has shared in selected date range.</t>
   </si>
   <si>
-    <t>1. Goto dash board&gt;Inbox&gt;Captured(Icon)</t>
-  </si>
-  <si>
     <t>This should show the number of monitors captured from the selected date range. (captured from Snapooh Monitor from users linked by the media owner)</t>
   </si>
   <si>
-    <t>1. Goto dash board&gt;Inbox&gt;shared(Icon)</t>
-  </si>
-  <si>
     <t>This should show the monitors that are shared by someone. – Other Snapooh monitor view users</t>
   </si>
   <si>
@@ -363,52 +326,185 @@
     <t>Tags,Alerts,Company name, Media Id, Image(Thumbnail view),Captured images count, company name and date.</t>
   </si>
   <si>
+    <t>if the owner is shared the monitor to someone the shared icon should display</t>
+  </si>
+  <si>
+    <t>The previous months a date range will effect the data on the inbox, share and inbox view details.</t>
+  </si>
+  <si>
+    <t>The past 15 days  a date range will effect the data on the inbox, share and inbox view details.</t>
+  </si>
+  <si>
+    <t>last 7 days  date range will effect the data on the inbox, share and inbox view details.</t>
+  </si>
+  <si>
+    <t>Check the link of the selected monitor .</t>
+  </si>
+  <si>
+    <t>Check the link of the View Inbox link.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Inbox page should be display and </t>
+  </si>
+  <si>
+    <t>View Inbox page should be display with the respective date selected in the date picker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The last 15days date should be display and should not display the last week .
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go to the dashboard .
+2. select date picker.
+3. select date as last week/toady/This week /last week/7days ago and again select date as 15 days ago.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go to dashboard 
+2. click on shared Icon
+</t>
+  </si>
+  <si>
+    <t>Clicking on shared Icon. Shared monitors should display  according to the date picker.</t>
+  </si>
+  <si>
+    <t>check the functionality of the shared Icon</t>
+  </si>
+  <si>
+    <t>check the functionality of the Inbox Icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go to dashboard 
+2. click on Inbox Icon
+</t>
+  </si>
+  <si>
+    <t>Clicking On inbox, all captured and shared monitors should display for the selected date range.</t>
+  </si>
+  <si>
+    <t>"please check your email address and password " message should be display.</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>"please check your email address and password " message should be display and login should fail.</t>
+  </si>
+  <si>
+    <t>1. launch the app from mobile
+2. Enter the Invalid user name and password.
+3. click on login button.</t>
+  </si>
+  <si>
+    <t>1. launch the app from mobile
+2. Enter the valid user name and Invalid   password.
+3. click on login button.</t>
+  </si>
+  <si>
+    <t>present(Current) month  date range will effect the data on the inbox, share and inbox view details.</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;Recent monitors</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;Inbox</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;shared</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;Inbox&gt;Captured(Icon)</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;Inbox&gt;shared(Icon)</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;Inbox&gt;Recent monitors
+2. Select any monitor.</t>
+  </si>
+  <si>
     <t>Shared by owner
-1. Goto dash board&gt;Inbox&gt;Recent monitors
+1. Go to dash board&gt;Inbox&gt;Recent monitors
 2. Select any monitor.</t>
   </si>
   <si>
-    <t>if the owner is shared the monitor to someone the shared icon should display</t>
-  </si>
-  <si>
-    <t>The previous months a date range will effect the data on the inbox, share and inbox view details.</t>
-  </si>
-  <si>
-    <t>present(Currnt) month  date range will effect the data on the inbox, share and inbox view details.</t>
-  </si>
-  <si>
-    <t>The past 15 days  a date range will effect the data on the inbox, share and inbox view details.</t>
-  </si>
-  <si>
-    <t>last 7 days  date range will effect the data on the inbox, share and inbox view details.</t>
-  </si>
-  <si>
-    <t>Check the link of the selected monitor .</t>
-  </si>
-  <si>
-    <t>1. Goto dash board&gt;Inbox&gt;Recent monitors
-2. Select any monitor.</t>
-  </si>
-  <si>
-    <t>1. Goto dash board&gt;Inbox&gt;Recent monitors
+    <t>1. Go to dash board&gt;Inbox&gt;Recent monitors
 2. click on any monitor.</t>
   </si>
   <si>
-    <t>View Inbox page should be displayed.</t>
-  </si>
-  <si>
-    <t>Check the link of the View Inbox link.</t>
-  </si>
-  <si>
-    <t>1. Goto dash board&gt;Inbox&gt;Recent monitors
+    <t>1. Go to dash board&gt;Inbox&gt;Recent monitors
 2. click on view Inbox link.</t>
   </si>
   <si>
-    <t xml:space="preserve">View Inbox page should be display and </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+    <t>1. launch the app from mobile
+2. Enter the I invalid user name and Correct  password.
+3. click on login button.</t>
+  </si>
+  <si>
+    <t>1. Go to dash board.
+2. select the date picker
+3. select the date as yesterday</t>
+  </si>
+  <si>
+    <r>
+      <t>Validate the medias for "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yesterday".</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Go to snapooh monitor.
+2. capture, identify a media and upload a monitor.</t>
+  </si>
+  <si>
+    <t>After uploading a monitor in snapooh  monitor a Notification should be displayed (If a user as login and have a Monitor view app)</t>
+  </si>
+  <si>
+    <t>1. Go to snapooh monitor.
+2. capture, identify a media and upload a monitor.
+3. click on notifications</t>
+  </si>
+  <si>
+    <t>Inbox view or Inbox details page should be display.</t>
+  </si>
+  <si>
+    <t>1.go to dashboard .
+2. click on view Inbox.
+3. Select any monitor</t>
+  </si>
+  <si>
+    <t>Inbox details page should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to snapooh monitor.
+2. capture, identify a media.
+3. Select alerts or tags or notes icon.
+4. upload a monitor.
+5. click on notification .
 </t>
+  </si>
+  <si>
+    <t>The alerts or tags or notes should be displayed in the uploaded monitor.</t>
+  </si>
+  <si>
+    <t>The alets or tags or notes entered monitor should be updated.</t>
+  </si>
+  <si>
+    <t>1. Go to snapooh web app.
+2. Select Monitor View&gt; Inbox.
+3. Select any monitor recently uploaded.
+4. select alerts or tags or notes.
+5. modify the alerts or tags.
+6. go to snapooh monitor view app(Mobile) .
+7. select dashboard &gt;view Inbox.
+8. select updated alerts or tags in modified monitor.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +622,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -548,6 +644,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -556,6 +655,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -844,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I23"/>
+  <dimension ref="A2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -890,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1">
@@ -901,87 +1005,73 @@
         <v>42146</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>42146</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>42146</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
-        <v>42146</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -989,14 +1079,16 @@
         <v>42146</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1010,14 +1102,14 @@
         <v>42146</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1031,20 +1123,20 @@
         <v>42146</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1052,20 +1144,20 @@
         <v>42146</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="39">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1073,20 +1165,20 @@
         <v>42146</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="51.75">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1094,41 +1186,41 @@
         <v>42146</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="39">
-      <c r="A14" s="8">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="38.25">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="5">
         <v>42146</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="64.5">
+      <c r="F14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="39">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1136,20 +1228,20 @@
         <v>42146</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="26.25">
+    <row r="16" spans="1:9" ht="90">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -1158,11 +1250,11 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1175,38 +1267,42 @@
       <c r="B17" s="5">
         <v>42146</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="39">
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="39">
       <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>42146</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" ht="39">
+      <c r="F18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="64.5">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -1214,20 +1310,20 @@
         <v>42146</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="51.75">
+    <row r="20" spans="1:9" ht="26.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -1236,32 +1332,30 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="39">
+    <row r="21" spans="1:9" ht="51.75">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>42149</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>42146</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1272,36 +1366,369 @@
         <v>19</v>
       </c>
       <c r="B22" s="5">
-        <v>42149</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>42146</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="26.25">
+    <row r="23" spans="1:9" ht="39">
       <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="5">
+        <v>42146</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="51.75">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5">
+        <v>42146</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="39">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42149</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="39">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <v>42149</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="39">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="5">
+        <v>42149</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="45">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5">
+        <v>42149</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="60">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="105">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="165">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5">
+        <v>42149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20730" windowHeight="9975"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$I$5</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>Sl no</t>
   </si>
@@ -84,9 +86,6 @@
 3. select the date as today</t>
   </si>
   <si>
-    <t>This date range will effect the data on the dashboard, the inbox ,share and Inbox  list view.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Validate the medias for </t>
     </r>
@@ -278,15 +277,6 @@
 3. select the date as "last month"</t>
   </si>
   <si>
-    <t>The previous day date range will effect the data on the inbox, share and inbox view details.</t>
-  </si>
-  <si>
-    <t>The starting date of the week to a End of the week  date range will effect the data on the inbox, share and inbox view details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> last week of the starting date of the week to a End of the week  date range will effect the data on the inbox, share and inbox view details.</t>
-  </si>
-  <si>
     <t>Check the Inbox for captured and shared(Hand shown Icon)</t>
   </si>
   <si>
@@ -295,9 +285,6 @@
 3. click on any date range.</t>
   </si>
   <si>
-    <t>In inbox shared and captured monitors count should display for the selected date range.</t>
-  </si>
-  <si>
     <t xml:space="preserve">check the recent monitor updated(last 10) </t>
   </si>
   <si>
@@ -323,9 +310,6 @@
     <t>Check the details of the recent monitors</t>
   </si>
   <si>
-    <t>Tags,Alerts,Company name, Media Id, Image(Thumbnail view),Captured images count, company name and date.</t>
-  </si>
-  <si>
     <t>if the owner is shared the monitor to someone the shared icon should display</t>
   </si>
   <si>
@@ -344,20 +328,7 @@
     <t>Check the link of the View Inbox link.</t>
   </si>
   <si>
-    <t xml:space="preserve">View Inbox page should be display and </t>
-  </si>
-  <si>
     <t>View Inbox page should be display with the respective date selected in the date picker.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The last 15days date should be display and should not display the last week .
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. go to the dashboard .
-2. select date picker.
-3. select date as last week/toady/This week /last week/7days ago and again select date as 15 days ago.
-</t>
   </si>
   <si>
     <t xml:space="preserve">1. go to dashboard 
@@ -374,11 +345,6 @@
     <t>check the functionality of the Inbox Icon</t>
   </si>
   <si>
-    <t xml:space="preserve">1. go to dashboard 
-2. click on Inbox Icon
-</t>
-  </si>
-  <si>
     <t>Clicking On inbox, all captured and shared monitors should display for the selected date range.</t>
   </si>
   <si>
@@ -404,36 +370,8 @@
     <t>present(Current) month  date range will effect the data on the inbox, share and inbox view details.</t>
   </si>
   <si>
-    <t>1. Go to dash board&gt;Recent monitors</t>
-  </si>
-  <si>
-    <t>1. Go to dash board&gt;Inbox</t>
-  </si>
-  <si>
-    <t>1. Go to dash board&gt;shared</t>
-  </si>
-  <si>
-    <t>1. Go to dash board&gt;Inbox&gt;Captured(Icon)</t>
-  </si>
-  <si>
-    <t>1. Go to dash board&gt;Inbox&gt;shared(Icon)</t>
-  </si>
-  <si>
-    <t>1. Go to dash board&gt;Inbox&gt;Recent monitors
-2. Select any monitor.</t>
-  </si>
-  <si>
-    <t>Shared by owner
-1. Go to dash board&gt;Inbox&gt;Recent monitors
-2. Select any monitor.</t>
-  </si>
-  <si>
     <t>1. Go to dash board&gt;Inbox&gt;Recent monitors
 2. click on any monitor.</t>
-  </si>
-  <si>
-    <t>1. Go to dash board&gt;Inbox&gt;Recent monitors
-2. click on view Inbox link.</t>
   </si>
   <si>
     <t>1. launch the app from mobile
@@ -464,14 +402,6 @@
 2. capture, identify a media and upload a monitor.</t>
   </si>
   <si>
-    <t>After uploading a monitor in snapooh  monitor a Notification should be displayed (If a user as login and have a Monitor view app)</t>
-  </si>
-  <si>
-    <t>1. Go to snapooh monitor.
-2. capture, identify a media and upload a monitor.
-3. click on notifications</t>
-  </si>
-  <si>
     <t>Inbox view or Inbox details page should be display.</t>
   </si>
   <si>
@@ -506,12 +436,308 @@
 7. select dashboard &gt;view Inbox.
 8. select updated alerts or tags in modified monitor.</t>
   </si>
+  <si>
+    <t xml:space="preserve">The app must have an option to disable receiving notification </t>
+  </si>
+  <si>
+    <t>The dashboard screen must get updated dynamically and correctly when the user logs in</t>
+  </si>
+  <si>
+    <t>On scrolling down the recent monitor list, the app must update the list and in case no updation is available then display a message no recent monitor</t>
+  </si>
+  <si>
+    <t>The inbox and shared counter must get updated with data corresponding to the current date
+Cross check the data with the web application and snapooh monitor</t>
+  </si>
+  <si>
+    <t>The inbox and shared counter must get updated with data corresponding to the prev day
+Cross check the data with the web application and snapooh monitor</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;View Recent monitors</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;View Captured(Icon) in Inbox</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;View shared(Icon) in inbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Inbox details screen should be displayed </t>
+  </si>
+  <si>
+    <t>1. Click on any monitor in the recent monitor.
+2. In the inbox details View the map view</t>
+  </si>
+  <si>
+    <t>The map view must display the correct map of the monitor</t>
+  </si>
+  <si>
+    <t>1. Click on any monitor in the recent monitor.
+2. In the inbox details, map view.
+3. Zoom in and zoom out functionality</t>
+  </si>
+  <si>
+    <t>The user must be able to zoom in and zoom out the map. The map must display correctly on zooming in and out</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it should lead to google map direction screen</t>
+  </si>
+  <si>
+    <t>1. Click on any monitor in the recent monitor.
+2. In the inbox details, map view.
+3. click on direction icon</t>
+  </si>
+  <si>
+    <t>1. Click on any monitor in the recent monitor.
+2. In the inbox details, map view.
+3. click on google map icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it should lead to google map</t>
+  </si>
+  <si>
+    <t>1. Login to the app
+2. View the dashboard</t>
+  </si>
+  <si>
+    <t>The user must be able to select and deselect the images</t>
+  </si>
+  <si>
+    <t>1. Click on a monitor from recent monitor list.
+2. Click on share icon
+3. Select and deselect the images on share screen</t>
+  </si>
+  <si>
+    <t>1. Click on a monitor from recent monitor list.
+2. Click on share icon
+3. On the share screen, deselect all the images
+4. Enter a email id and click on send icon</t>
+  </si>
+  <si>
+    <t>The user must not be able to send the email id until atleast one image is shared</t>
+  </si>
+  <si>
+    <t>1. Click on a monitor from recent monitor list.
+2. Click on share icon
+3. On the share screen, select all the images
+4. Enter a email id and click on send icon</t>
+  </si>
+  <si>
+    <t>The monitor must be shared to the valid email id provided</t>
+  </si>
+  <si>
+    <t>The email id/namemust be validated correctly.
+The app must not accept invalid inputs and share the monitor</t>
+  </si>
+  <si>
+    <t>1. Click on a monitor from recent monitor list.
+2. Click on share icon
+3. On the share screen, click on each image</t>
+  </si>
+  <si>
+    <t>The user must be able to view an enlarged image. The image must be displayed clearly</t>
+  </si>
+  <si>
+    <t>Default date set in the list must be 'today'</t>
+  </si>
+  <si>
+    <t>1. Click on the date picker in dashboard</t>
+  </si>
+  <si>
+    <t>The list must dropdown with options
+Must be alligned correctly</t>
+  </si>
+  <si>
+    <t>1. Login and check the date set in the dashboard</t>
+  </si>
+  <si>
+    <t>Date format must appear consistent for all options</t>
+  </si>
+  <si>
+    <t>1. In the Dashboard, click on the date picker list and check the order of dates  in the datepicker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate Date picker </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> corresponding data from the last week of the starting date of the week to a End of the week  date range must load correctly in the inbox, share and inbox view details.</t>
+  </si>
+  <si>
+    <t>corresponding data from the starting date of the week to End of the week date range must load correctly  in the inbox, share and inbox view details.</t>
+  </si>
+  <si>
+    <t>1. In the Dashboard, click on the date picker list, check the date format of all options in the list</t>
+  </si>
+  <si>
+    <t>1. Click on a monitor from recent monitor list.
+2. Click on share icon
+3. On the share screen, select all the images
+4. In the name/email id input screen, Input the following
+a. Alpha characters, special characters
+b. numericals
+c. Alphanum
+d. invalid email id
+e. Incorrect names</t>
+  </si>
+  <si>
+    <t>Shared by owner
+1. Go to dash board&gt;Inbox&gt;Recent monitors
+2. Select any monitor</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;Inbox&gt;Recent monitors
+2. Select any monitor and view its details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following details must appear correctly:
+Image(Thumbnail view),
+Username
+Linked media ID details
+Media type
+Location address
+Date
+Location indicator icon
+Captured images count
+Tags,Alerts and notes </t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;Inbox&gt;Recent monitors
+2. click on view Inbox button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go to the dashboard .
+2. select date picker.
+3.Select any option in date picker, navigate to other options and reselect the 1st option
+</t>
+  </si>
+  <si>
+    <t>The data should appear correctly even when the user navigates from one option to other and reselects the initial option.</t>
+  </si>
+  <si>
+    <t>1. Go to Dashboard
+2. On the date picker menu, reselect the same date option</t>
+  </si>
+  <si>
+    <t>The app must refresh the update the data for the selected option</t>
+  </si>
+  <si>
+    <t>The date option must appear in an ascending or descending order.
+The range of the dates must be correctly mentioned</t>
+  </si>
+  <si>
+    <t>1. In the Dashboard, try to scroll down the recent monitor list.</t>
+  </si>
+  <si>
+    <t>1. Click on a monitor from recent monitor list.
+2. Click on share icon
+3. On the share screen, select all the images
+4.In the email id text box, check the placeholder text in the email field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder text  in the email field appears correctly </t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;Recent monitors
+2. click on any monitor.
+3. In the inbox details screen check the details</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;Recent monitors
+2. click on any monitor.
+3. In the inbox details screen, click on the linked media images</t>
+  </si>
+  <si>
+    <t>Enlarged images of the media must appear</t>
+  </si>
+  <si>
+    <t>The text " Showing monitors captured between &lt;selected Date range&gt; " must appear above the inbox folder
+On selecting an option in date picker, the corresponding data must load correctly in inbox shared and shared monitors count.</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;view Inbox folder</t>
+  </si>
+  <si>
+    <t>1. Go to dash board&gt;view shared folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. go to dashboard 
+2. click on Inbox folder icon
+</t>
+  </si>
+  <si>
+    <t>After uploading a monitor in snapooh  monitor a Notification should be displayed (If the user has logged in to Monitor view app)</t>
+  </si>
+  <si>
+    <t>1. Go to snapooh monitor.
+2. capture, identify a media and upload a monitor.
+3. Monitor view app recieves a notification. In the phone, click on notifications</t>
+  </si>
+  <si>
+    <t>1. Go to dashboard&gt; click on inbox folder</t>
+  </si>
+  <si>
+    <t>Should take you to inbox view</t>
+  </si>
+  <si>
+    <t>List of monitors in inbox must be displayed with the following details in each monitor:
+- Monitor Image
+- User name on the image
+Monitor header details:
+- Date
+- Location icon (enabled colour)
+- Images count
+Monitor footer details:
+- Linked media ID details
+- Media type
+- Location address</t>
+  </si>
+  <si>
+    <t>1. Go to dashboard&gt; click on inbox folder
+2. View the monitors in inbox view screen</t>
+  </si>
+  <si>
+    <t>1. Go to dashboard&gt; click on inbox folder
+2. View the monitors in inbox view screen
+3. Click on any monitor</t>
+  </si>
+  <si>
+    <t>The inbox details screen must appear</t>
+  </si>
+  <si>
+    <t>The following details must appear correctly:
+Map view(with the media locator)
+Username
+Captured on date
+Images count
+Location address
+Linked media images
+Linked media id
+Linked media type
+Size
+Location address</t>
+  </si>
+  <si>
+    <t>The dashboard screen must get updated display the data without a lag when the user logs in</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build Number: </t>
+  </si>
+  <si>
+    <t>Untestable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,8 +790,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,8 +832,26 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -616,13 +889,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,13 +1028,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -738,6 +1184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -772,6 +1219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -947,392 +1395,385 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="15"/>
+      <c r="D1" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="15"/>
+      <c r="D2" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="24">
+        <f>COUNTIF(G6:G87, "Pass")</f>
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="15"/>
+      <c r="D3" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="23">
+        <f>COUNTIF(G6:G87, "Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="15"/>
+      <c r="D4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="22">
+        <f>COUNTIF(G6:G87, "unable to test")</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1">
-      <c r="A4" s="4">
+      <c r="I5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B6" s="5">
         <v>42146</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="51">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="51">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>42146</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>42146</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>42146</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>29</v>
+      <c r="F10" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <v>42146</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>42146</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>46</v>
+      <c r="F12" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5">
         <v>42146</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5">
         <v>42146</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="39">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5">
         <v>42146</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="90">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="5">
         <v>42146</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="51.75">
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5">
         <v>42146</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="39">
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5">
         <v>42146</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="64.5">
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5">
         <v>42146</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="26.25">
+    <row r="20" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="5">
         <v>42146</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
@@ -1342,419 +1783,881 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="51.75">
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5">
         <v>42146</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="39">
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5">
         <v>42146</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="39">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="5">
         <v>42146</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="51.75">
-      <c r="A24" s="4">
-        <v>21</v>
-      </c>
-      <c r="B24" s="5">
-        <v>42146</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="39">
-      <c r="A25" s="4">
+      <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="5">
-        <v>42149</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="39">
-      <c r="A26" s="4">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5">
-        <v>42149</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="39">
-      <c r="A27" s="4">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5">
-        <v>42149</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="45">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="5">
-        <v>42149</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="60">
-      <c r="A29" s="4">
+      <c r="B30" s="5"/>
+      <c r="C30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="141" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B29" s="5">
-        <v>42149</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="60">
-      <c r="A30" s="4">
-        <v>27</v>
-      </c>
-      <c r="B30" s="5">
-        <v>42149</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45">
-      <c r="A31" s="4">
-        <v>28</v>
-      </c>
-      <c r="B31" s="5">
-        <v>42149</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="105">
-      <c r="A32" s="4">
+      <c r="G33" s="4"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="5">
-        <v>42149</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="165">
-      <c r="A33" s="4">
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B33" s="5">
-        <v>42149</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4">
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B34" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4">
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B35" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4">
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B36" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4">
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B37" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4">
+      <c r="B39" s="5"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B38" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4">
+      <c r="B40" s="5">
+        <v>42146</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B39" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4">
+      <c r="B41" s="5">
+        <v>42146</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B40" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4">
+      <c r="B42" s="5">
+        <v>42146</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B41" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4">
+      <c r="B43" s="5">
+        <v>42146</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B42" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="4">
+      <c r="B44" s="5">
+        <v>42146</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="153.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B43" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="4">
+      <c r="B45" s="5">
+        <v>42146</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>41</v>
-      </c>
-      <c r="B44" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="4">
-        <v>42</v>
-      </c>
-      <c r="B45" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="4">
-        <v>43</v>
       </c>
       <c r="B46" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="D46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="C47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>47</v>
-      </c>
-      <c r="B50" s="5">
-        <v>42149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="D51" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="D52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" s="5">
         <v>42149</v>
       </c>
+      <c r="D53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>51</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="D56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>53</v>
+      </c>
+      <c r="B58" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5">
+        <v>42149</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>55</v>
+      </c>
+      <c r="B60" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>56</v>
+      </c>
+      <c r="B61" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>57</v>
+      </c>
+      <c r="B62" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>58</v>
+      </c>
+      <c r="B63" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>59</v>
+      </c>
+      <c r="B64" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>60</v>
+      </c>
+      <c r="B65" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>61</v>
+      </c>
+      <c r="B66" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>62</v>
+      </c>
+      <c r="B67" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>63</v>
+      </c>
+      <c r="B68" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>64</v>
+      </c>
+      <c r="B69" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>65</v>
+      </c>
+      <c r="B70" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>66</v>
+      </c>
+      <c r="B71" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>67</v>
+      </c>
+      <c r="B72" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>68</v>
+      </c>
+      <c r="B73" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>69</v>
+      </c>
+      <c r="B74" s="5">
+        <v>42149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:I5"/>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G6:G59">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Unable to test"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G59">
+      <formula1>"Pass, Fail, Unable to test"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$I$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$I$85</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
   <si>
     <t>Sl no</t>
   </si>
@@ -732,12 +732,55 @@
   <si>
     <t>Untestable</t>
   </si>
+  <si>
+    <t>The map zoom in and out is working correctly , but In android OS (ICS 4.0.4) not at all user friendly</t>
+  </si>
+  <si>
+    <t>Only displayed as 30 monitors</t>
+  </si>
+  <si>
+    <t>It shouldn’t get updated. If logout and login it will update.</t>
+  </si>
+  <si>
+    <t>after updating a monitor also it still showing a message "No recent monitor"</t>
+  </si>
+  <si>
+    <t>Date is displayed as invalid.</t>
+  </si>
+  <si>
+    <t>displays medias  for the selected medias</t>
+  </si>
+  <si>
+    <t>it should update monitor with the  "This monitor is not linked to any media  " to "Linked media".</t>
+  </si>
+  <si>
+    <t>1. Go to web app monitor view &gt;inbox.
+2. Select a monitor(recently monitored and unlinked) .
+3. click on link now (media) and link the monitor.
+4. Go to monitor view app &gt; dashboard.
+5.  select the date range which have linked monitor.
+6. click on view Inbox</t>
+  </si>
+  <si>
+    <t>1. Go to web app monitor view &gt;inbox.
+2. Select a monitor(recently monitored and linked) .
+3. click on unlink (media) and unlink the monitor
+4. Go to monitor view app &gt; dashboard.
+5.  select the date range which have linked monitor.
+6. click on view Inbox</t>
+  </si>
+  <si>
+    <t>it should update monitor with the "Linked media" to "his monitor is not linked to any media "</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> month date is not correctLat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +862,12 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1003,7 +1052,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1047,12 +1096,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1071,13 +1114,64 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1399,8 +1493,8 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="5" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,40 +1512,40 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="15"/>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="24"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="15"/>
-      <c r="D2" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="24">
+      <c r="D2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="22">
         <f>COUNTIF(G6:G87, "Pass")</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="15"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="21">
         <f>COUNTIF(G6:G87, "Fail")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="15"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <f>COUNTIF(G6:G87, "unable to test")</f>
         <v>0</v>
       </c>
@@ -1505,7 +1599,9 @@
       <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
@@ -1522,7 +1618,9 @@
       <c r="F7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
@@ -1539,7 +1637,9 @@
       <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
@@ -1556,7 +1656,9 @@
       <c r="F9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
@@ -1573,7 +1675,9 @@
       <c r="F10" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
@@ -1592,7 +1696,9 @@
       <c r="F11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
@@ -1609,7 +1715,9 @@
       <c r="F12" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
@@ -1632,8 +1740,12 @@
       <c r="F13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
@@ -1653,7 +1765,9 @@
       <c r="F14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
@@ -1674,7 +1788,9 @@
       <c r="F15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
@@ -1695,7 +1811,9 @@
       <c r="F16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
@@ -1716,7 +1834,9 @@
       <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
@@ -1737,7 +1857,9 @@
       <c r="F18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
@@ -1758,7 +1880,9 @@
       <c r="F19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
@@ -1779,7 +1903,9 @@
       <c r="F20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
@@ -1853,8 +1979,12 @@
       <c r="F24" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>148</v>
+      </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
@@ -1874,7 +2004,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -1891,8 +2021,12 @@
       <c r="F26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
@@ -1927,11 +2061,13 @@
       <c r="F28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -1944,8 +2080,12 @@
       <c r="F29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
@@ -1963,7 +2103,9 @@
       <c r="F30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
@@ -1980,8 +2122,12 @@
       <c r="F31" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6"/>
+      <c r="G31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
@@ -1996,7 +2142,9 @@
       <c r="F32" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
@@ -2013,7 +2161,9 @@
       <c r="F33" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
@@ -2098,7 +2248,9 @@
       <c r="F38" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
@@ -2136,8 +2288,12 @@
       <c r="F40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -2174,7 +2330,9 @@
       <c r="F42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
@@ -2193,7 +2351,9 @@
       <c r="F43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
@@ -2210,7 +2370,9 @@
       <c r="F44" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
@@ -2245,7 +2407,9 @@
       <c r="F46" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
@@ -2266,7 +2430,9 @@
       <c r="F47" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
@@ -2287,11 +2453,13 @@
       <c r="F48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44</v>
       </c>
@@ -2309,7 +2477,7 @@
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45</v>
       </c>
@@ -2318,9 +2486,11 @@
       <c r="D50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G50" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -2330,12 +2500,14 @@
       <c r="D51" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="G51" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -2345,12 +2517,14 @@
       <c r="D52" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G52" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
@@ -2360,12 +2534,14 @@
       <c r="D53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="G53" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
@@ -2375,12 +2551,12 @@
       <c r="D54" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
@@ -2390,12 +2566,14 @@
       <c r="D55" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G55" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>51</v>
       </c>
@@ -2403,12 +2581,17 @@
       <c r="D56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G56" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>52</v>
       </c>
@@ -2418,12 +2601,14 @@
       <c r="D57" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G57" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>53</v>
       </c>
@@ -2433,40 +2618,62 @@
       <c r="D58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G58" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>54</v>
       </c>
       <c r="B59" s="5">
         <v>42149</v>
       </c>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>55</v>
       </c>
       <c r="B60" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>56</v>
       </c>
       <c r="B61" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>57</v>
       </c>
@@ -2474,7 +2681,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>58</v>
       </c>
@@ -2482,7 +2689,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>59</v>
       </c>
@@ -2626,23 +2833,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:I5"/>
+  <autoFilter ref="A5:I85"/>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G59">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="G6:G61">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Unable to test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G61">
       <formula1>"Pass, Fail, Unable to test"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="20730" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$I$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
   <si>
     <t>Sl no</t>
   </si>
@@ -29,9 +30,6 @@
     <t>Test objective</t>
   </si>
   <si>
-    <t>Steps</t>
-  </si>
-  <si>
     <t>Test data</t>
   </si>
   <si>
@@ -45,11 +43,6 @@
   </si>
   <si>
     <t>Enter a valid user name and password.</t>
-  </si>
-  <si>
-    <t>1. launch the app from mobile
-2. Enter the valid user name and password.
-3. click on login button.</t>
   </si>
   <si>
     <t>Open a dashboard screen with logging in message</t>
@@ -669,11 +662,6 @@
     <t>After uploading a monitor in snapooh  monitor a Notification should be displayed (If the user has logged in to Monitor view app)</t>
   </si>
   <si>
-    <t>1. Go to snapooh monitor.
-2. capture, identify a media and upload a monitor.
-3. Monitor view app recieves a notification. In the phone, click on notifications</t>
-  </si>
-  <si>
     <t>1. Go to dashboard&gt; click on inbox folder</t>
   </si>
   <si>
@@ -731,6 +719,32 @@
   </si>
   <si>
     <t>Untestable</t>
+  </si>
+  <si>
+    <t>1. launch the app 
+2. Enter the valid user name and password.
+3. click on login button.</t>
+  </si>
+  <si>
+    <t>1. Go to snapooh monitor.
+2. capture, identify a media and upload a monitor.
+3. Monitor view app recieves a notification. In the phone, click on notifications
+Note: Same account for monitor and monitor view</t>
+  </si>
+  <si>
+    <t>With Snapooh monitor logged in with info account
+Monitor view app logged in with monitordemo account
+1. Login to snapooh monitor
+2. capture, identify a media and upload a monitor.</t>
+  </si>
+  <si>
+    <t>Monitor view app must not receive a notfication as the monitor uploaded is from a different account</t>
+  </si>
+  <si>
+    <t>On selecting a notification, the app is crashing</t>
+  </si>
+  <si>
+    <t>app is not updating the list</t>
   </si>
 </sst>
 </file>
@@ -1047,12 +1061,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1071,13 +1079,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1396,11 +1431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,41 +1453,41 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="15"/>
-      <c r="D1" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="18"/>
+      <c r="D1" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="24"/>
       <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="15"/>
-      <c r="D2" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="24">
-        <f>COUNTIF(G6:G87, "Pass")</f>
-        <v>0</v>
+      <c r="D2" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="22">
+        <f>COUNTIF(G6:G88, "Pass")</f>
+        <v>5</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="15"/>
-      <c r="D3" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="23">
-        <f>COUNTIF(G6:G87, "Fail")</f>
-        <v>0</v>
+      <c r="D3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="21">
+        <f>COUNTIF(G6:G88, "Fail")</f>
+        <v>3</v>
       </c>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="15"/>
-      <c r="D4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="22">
-        <f>COUNTIF(G6:G87, "unable to test")</f>
+      <c r="D4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="20">
+        <f>COUNTIF(G6:G88, "unable to test")</f>
         <v>0</v>
       </c>
       <c r="F4" s="16"/>
@@ -1467,23 +1502,23 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1" x14ac:dyDescent="0.2">
@@ -1494,16 +1529,16 @@
         <v>42146</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1516,11 +1551,11 @@
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1533,11 +1568,11 @@
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1550,11 +1585,11 @@
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1567,11 +1602,11 @@
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1583,14 +1618,14 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1603,11 +1638,11 @@
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1621,16 +1656,16 @@
         <v>42146</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1644,14 +1679,14 @@
         <v>42146</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1665,14 +1700,14 @@
         <v>42146</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1686,14 +1721,14 @@
         <v>42146</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1707,14 +1742,14 @@
         <v>42146</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1728,14 +1763,14 @@
         <v>42146</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1749,14 +1784,14 @@
         <v>42146</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1770,14 +1805,14 @@
         <v>42146</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1792,11 +1827,11 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1810,14 +1845,14 @@
         <v>42146</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1830,11 +1865,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="10"/>
@@ -1847,11 +1882,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="10"/>
@@ -1864,11 +1899,11 @@
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="10"/>
@@ -1882,14 +1917,14 @@
         <v>42146</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6"/>
@@ -1901,14 +1936,14 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="6"/>
@@ -1921,11 +1956,11 @@
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="6"/>
@@ -1938,14 +1973,18 @@
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
@@ -1954,14 +1993,14 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="6"/>
@@ -1974,11 +2013,11 @@
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="6"/>
@@ -1991,10 +2030,10 @@
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="6"/>
@@ -2007,11 +2046,11 @@
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="6"/>
@@ -2024,11 +2063,11 @@
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="6"/>
@@ -2041,11 +2080,11 @@
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="6"/>
@@ -2058,11 +2097,11 @@
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
@@ -2075,11 +2114,11 @@
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="6"/>
@@ -2092,11 +2131,11 @@
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
@@ -2109,11 +2148,11 @@
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
@@ -2127,14 +2166,14 @@
         <v>42146</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2149,11 +2188,11 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -2168,11 +2207,11 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2187,11 +2226,11 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2205,10 +2244,10 @@
         <v>42146</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2223,10 +2262,10 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -2240,10 +2279,10 @@
         <v>42149</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -2257,14 +2296,14 @@
         <v>42149</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -2278,20 +2317,20 @@
         <v>42149</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44</v>
       </c>
@@ -2299,28 +2338,28 @@
         <v>42149</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -2328,14 +2367,14 @@
         <v>42149</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -2343,285 +2382,335 @@
         <v>42149</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+        <v>58</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="D53" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>48</v>
-      </c>
-      <c r="B53" s="5">
-        <v>42149</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>49</v>
       </c>
       <c r="B54" s="5">
         <v>42149</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>63</v>
+      <c r="D54" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="5">
         <v>42149</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
+        <v>50</v>
+      </c>
+      <c r="B56" s="5">
+        <v>42149</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>51</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="D56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="B57" s="5"/>
+      <c r="D57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>52</v>
-      </c>
-      <c r="B57" s="5">
-        <v>42149</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>53</v>
       </c>
       <c r="B58" s="5">
         <v>42149</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="5">
         <v>42149</v>
       </c>
+      <c r="D59" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="F59" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F60" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
+        <v>69</v>
+      </c>
+      <c r="B75" s="5">
+        <v>42149</v>
+      </c>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>71</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>73</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>74</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>80</v>
       </c>
     </row>
@@ -2630,19 +2719,19 @@
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G6:G59">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="G6:G82">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Unable to test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G82">
       <formula1>"Pass, Fail, Unable to test"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$I$85</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
   <si>
     <t>Sl no</t>
   </si>
@@ -421,9 +421,6 @@
 </t>
   </si>
   <si>
-    <t>The alerts or tags or notes should be displayed in the uploaded monitor.</t>
-  </si>
-  <si>
     <t>The alets or tags or notes entered monitor should be updated.</t>
   </si>
   <si>
@@ -745,12 +742,6 @@
     <t>after updating a monitor also it still showing a message "No recent monitor"</t>
   </si>
   <si>
-    <t>Date is displayed as invalid.</t>
-  </si>
-  <si>
-    <t>displays medias  for the selected medias</t>
-  </si>
-  <si>
     <t>it should update monitor with the  "This monitor is not linked to any media  " to "Linked media".</t>
   </si>
   <si>
@@ -773,14 +764,35 @@
     <t>it should update monitor with the "Linked media" to "his monitor is not linked to any media "</t>
   </si>
   <si>
-    <t xml:space="preserve"> month date is not correctLat</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Unable to test</t>
+  </si>
+  <si>
+    <t>all the dates arenot upto date for the range</t>
+  </si>
+  <si>
+    <t>The count of the monitors and in mobile and web is cross verified</t>
+  </si>
+  <si>
+    <t>No monitor images are displayed in shared screen.</t>
+  </si>
+  <si>
+    <t>3G Network the images are not displayed</t>
+  </si>
+  <si>
+    <t>IN THE OFFLINE MODE Date Picker is not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> month date is not correctly displayed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,14 +1126,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1129,49 +1141,7 @@
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1278,7 +1248,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1313,7 +1282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1489,15 +1457,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1510,48 +1478,48 @@
     <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="C1" s="15"/>
-      <c r="D1" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="24"/>
+      <c r="D1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="25"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="C2" s="15"/>
       <c r="D2" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="22">
         <f>COUNTIF(G6:G87, "Pass")</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="15"/>
       <c r="D3" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="21">
         <f>COUNTIF(G6:G87, "Fail")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="C4" s="15"/>
       <c r="D4" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="20">
         <f>COUNTIF(G6:G87, "unable to test")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1580,7 +1548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1600,12 +1568,12 @@
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1619,12 +1587,12 @@
         <v>49</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1638,12 +1606,12 @@
         <v>51</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1657,71 +1625,71 @@
         <v>51</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="30">
       <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="30">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="63.75">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -1738,17 +1706,17 @@
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -1763,15 +1731,15 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -1786,15 +1754,15 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -1809,15 +1777,15 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -1835,12 +1803,12 @@
         <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -1858,12 +1826,12 @@
         <v>39</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -1881,12 +1849,12 @@
         <v>54</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="39">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -1904,12 +1872,12 @@
         <v>38</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="90">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -1918,17 +1886,19 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="90">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -1943,68 +1913,78 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="45">
       <c r="A23" s="4">
         <v>18</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="45">
       <c r="A24" s="4">
         <v>19</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="51.75">
       <c r="A25" s="4">
         <v>20</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="10"/>
+        <v>112</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>147</v>
+      </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -2015,21 +1995,21 @@
         <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="128.25">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -2038,57 +2018,59 @@
         <v>36</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A28" s="4">
         <v>23</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="64.5">
       <c r="A29" s="4">
         <v>24</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="39">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -2101,177 +2083,191 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="141" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="141">
       <c r="A31" s="4">
         <v>26</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A32" s="4">
         <v>27</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="60">
       <c r="A33" s="4">
         <v>28</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="75">
       <c r="A34" s="4">
         <v>29</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="105">
       <c r="A35" s="4">
         <v>30</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="105">
       <c r="A36" s="4">
         <v>31</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="195">
       <c r="A37" s="4">
         <v>32</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="75">
       <c r="A38" s="4">
         <v>33</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="7" customFormat="1" ht="105">
       <c r="A39" s="4">
         <v>34</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="64.5">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -2282,21 +2278,21 @@
         <v>31</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="26.25">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -2305,17 +2301,19 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="51.75">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -2324,19 +2322,19 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="39">
       <c r="A43" s="4">
         <v>38</v>
       </c>
@@ -2345,19 +2343,19 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="4">
         <v>39</v>
       </c>
@@ -2365,18 +2363,18 @@
         <v>42146</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="G44" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="153.75">
       <c r="A45" s="4">
         <v>40</v>
       </c>
@@ -2385,16 +2383,18 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="75">
       <c r="A46" s="4">
         <v>41</v>
       </c>
@@ -2402,18 +2402,18 @@
         <v>42149</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="G46" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="39">
       <c r="A47" s="4">
         <v>42</v>
       </c>
@@ -2424,19 +2424,19 @@
         <v>42</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="39">
       <c r="A48" s="4">
         <v>43</v>
       </c>
@@ -2454,12 +2454,12 @@
         <v>45</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="39">
       <c r="A49" s="4">
         <v>44</v>
       </c>
@@ -2470,27 +2470,29 @@
         <v>47</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G49" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="26.25">
       <c r="A50" s="4">
         <v>45</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -2501,13 +2503,13 @@
         <v>59</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="90">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -2515,16 +2517,16 @@
         <v>42149</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G52" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G52" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45">
       <c r="A53" s="4">
         <v>48</v>
       </c>
@@ -2537,11 +2539,11 @@
       <c r="F53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G53" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="G53" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="105">
       <c r="A54" s="4">
         <v>49</v>
       </c>
@@ -2551,12 +2553,14 @@
       <c r="D54" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="25"/>
-    </row>
-    <row r="55" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="F54" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="165">
       <c r="A55" s="4">
         <v>50</v>
       </c>
@@ -2564,34 +2568,34 @@
         <v>42149</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="120">
       <c r="A56" s="4">
         <v>51</v>
       </c>
       <c r="B56" s="5"/>
       <c r="D56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>134</v>
+      <c r="G56" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="60">
       <c r="A57" s="4">
         <v>52</v>
       </c>
@@ -2599,16 +2603,16 @@
         <v>42149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="60">
       <c r="A58" s="4">
         <v>53</v>
       </c>
@@ -2616,16 +2620,16 @@
         <v>42149</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G58" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45">
       <c r="A59" s="4">
         <v>54</v>
       </c>
@@ -2633,13 +2637,13 @@
         <v>42149</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="165">
       <c r="A60" s="4">
         <v>55</v>
       </c>
@@ -2647,16 +2651,16 @@
         <v>42149</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="165">
       <c r="A61" s="4">
         <v>56</v>
       </c>
@@ -2664,16 +2668,16 @@
         <v>42149</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="4">
         <v>57</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="4">
         <v>58</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="4">
         <v>59</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="4">
         <v>60</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="4">
         <v>61</v>
       </c>
@@ -2713,7 +2717,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="4">
         <v>62</v>
       </c>
@@ -2721,7 +2725,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="4">
         <v>63</v>
       </c>
@@ -2729,7 +2733,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="4">
         <v>64</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="4">
         <v>65</v>
       </c>
@@ -2745,7 +2749,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="4">
         <v>66</v>
       </c>
@@ -2753,7 +2757,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="4">
         <v>67</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="4">
         <v>68</v>
       </c>
@@ -2769,7 +2773,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="4">
         <v>69</v>
       </c>
@@ -2777,57 +2781,57 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="4">
         <v>80</v>
       </c>
@@ -2838,13 +2842,13 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G61">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Unable to test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2859,12 +2863,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="161">
   <si>
     <t>Sl no</t>
   </si>
@@ -785,7 +785,31 @@
     <t>IN THE OFFLINE MODE Date Picker is not working</t>
   </si>
   <si>
-    <t xml:space="preserve"> month date is not correctly displayed.</t>
+    <t>BUG ID:1941</t>
+  </si>
+  <si>
+    <t>BUG ID: 1941</t>
+  </si>
+  <si>
+    <t>BUG ID: 1738</t>
+  </si>
+  <si>
+    <t>BUG ID: 1938</t>
+  </si>
+  <si>
+    <t>BUG ID:1956</t>
+  </si>
+  <si>
+    <t>BUG ID:1762</t>
+  </si>
+  <si>
+    <t>BUG ID:1940</t>
+  </si>
+  <si>
+    <t>BUG ID:1753</t>
+  </si>
+  <si>
+    <t>BUG ID:1754</t>
   </si>
 </sst>
 </file>
@@ -1458,11 +1482,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1548,7 +1573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1573,7 +1598,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1592,7 +1617,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1611,7 +1636,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1630,7 +1655,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="26.25" hidden="1" thickTop="1">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1649,7 +1674,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="30">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="30.75" hidden="1" thickTop="1">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -1670,7 +1695,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="30">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="30.75" hidden="1" thickTop="1">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -1689,7 +1714,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="63.75">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="64.5" hidden="1" thickTop="1">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -1716,7 +1741,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="64.5" hidden="1" thickTop="1">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -1739,7 +1764,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -1762,7 +1787,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="51.75" hidden="1" thickTop="1">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -1785,7 +1810,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -1808,7 +1833,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -1831,7 +1856,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="39" hidden="1" thickTop="1">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -1854,7 +1879,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="39">
+    <row r="20" spans="1:9" ht="39.75" thickTop="1">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -1875,9 +1900,11 @@
         <v>134</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="90">
+      <c r="I20" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="90" hidden="1">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -1898,7 +1925,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="90">
+    <row r="22" spans="1:9" ht="90" hidden="1">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -1923,7 +1950,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="45">
+    <row r="23" spans="1:9" ht="45" hidden="1">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -1958,10 +1985,10 @@
       <c r="G24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="51.75">
       <c r="A25" s="4">
@@ -1982,7 +2009,9 @@
       <c r="H25" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="26" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A26" s="4">
@@ -2007,9 +2036,11 @@
       <c r="H26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="128.25">
+      <c r="I26" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="128.25" hidden="1">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -2030,7 +2061,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="51.75">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="51.75" hidden="1">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -2068,9 +2099,11 @@
       <c r="H29" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="39">
+      <c r="I29" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="39" hidden="1">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -2110,7 +2143,9 @@
       <c r="H31" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="32" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A32" s="4">
@@ -2130,9 +2165,11 @@
       <c r="H32" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="60">
+      <c r="I32" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="60" hidden="1">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -2151,7 +2188,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="75">
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="75" hidden="1">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -2172,7 +2209,7 @@
       </c>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="105">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="105" hidden="1">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -2191,7 +2228,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="105">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="105" hidden="1">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -2210,7 +2247,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="195">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="195" hidden="1">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -2229,7 +2266,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="75">
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="75" hidden="1">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -2248,7 +2285,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" ht="105">
+    <row r="39" spans="1:9" s="7" customFormat="1" ht="105" hidden="1">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -2290,7 +2327,9 @@
       <c r="H40" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="4"/>
+      <c r="I40" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="26.25">
       <c r="A41" s="4">
@@ -2313,7 +2352,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="51.75">
+    <row r="42" spans="1:9" ht="51.75" hidden="1">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -2355,7 +2394,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="30" hidden="1">
       <c r="A44" s="4">
         <v>39</v>
       </c>
@@ -2374,7 +2413,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="153.75">
+    <row r="45" spans="1:9" ht="153.75" hidden="1">
       <c r="A45" s="4">
         <v>40</v>
       </c>
@@ -2394,7 +2433,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="75">
+    <row r="46" spans="1:9" ht="75" hidden="1">
       <c r="A46" s="4">
         <v>41</v>
       </c>
@@ -2413,7 +2452,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="39">
+    <row r="47" spans="1:9" ht="39" hidden="1">
       <c r="A47" s="4">
         <v>42</v>
       </c>
@@ -2457,9 +2496,11 @@
         <v>134</v>
       </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" ht="39">
+      <c r="I48" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="39" hidden="1">
       <c r="A49" s="4">
         <v>44</v>
       </c>
@@ -2479,7 +2520,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="26.25">
+    <row r="50" spans="1:9" ht="26.25">
       <c r="A50" s="4">
         <v>45</v>
       </c>
@@ -2491,8 +2532,11 @@
       <c r="G50" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="60">
+      <c r="I50" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="60" hidden="1">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -2509,7 +2553,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="90">
+    <row r="52" spans="1:9" ht="90" hidden="1">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -2526,7 +2570,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="45">
+    <row r="53" spans="1:9" ht="45" hidden="1">
       <c r="A53" s="4">
         <v>48</v>
       </c>
@@ -2543,7 +2587,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="105">
+    <row r="54" spans="1:9" ht="105" hidden="1">
       <c r="A54" s="4">
         <v>49</v>
       </c>
@@ -2560,7 +2604,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="165">
+    <row r="55" spans="1:9" ht="165" hidden="1">
       <c r="A55" s="4">
         <v>50</v>
       </c>
@@ -2577,7 +2621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="120">
+    <row r="56" spans="1:9" ht="120" hidden="1">
       <c r="A56" s="4">
         <v>51</v>
       </c>
@@ -2595,7 +2639,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="60">
+    <row r="57" spans="1:9" ht="60" hidden="1">
       <c r="A57" s="4">
         <v>52</v>
       </c>
@@ -2612,7 +2656,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="60">
+    <row r="58" spans="1:9" ht="60" hidden="1">
       <c r="A58" s="4">
         <v>53</v>
       </c>
@@ -2629,7 +2673,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="45">
+    <row r="59" spans="1:9" ht="45" hidden="1">
       <c r="A59" s="4">
         <v>54</v>
       </c>
@@ -2643,7 +2687,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="165">
+    <row r="60" spans="1:9" ht="165" hidden="1">
       <c r="A60" s="4">
         <v>55</v>
       </c>
@@ -2660,7 +2704,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="165">
+    <row r="61" spans="1:9" ht="165" hidden="1">
       <c r="A61" s="4">
         <v>56</v>
       </c>
@@ -2677,7 +2721,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" s="4">
         <v>57</v>
       </c>
@@ -2685,7 +2729,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="4">
         <v>58</v>
       </c>
@@ -2693,7 +2737,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="4">
         <v>59</v>
       </c>
@@ -2701,7 +2745,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" hidden="1">
       <c r="A65" s="4">
         <v>60</v>
       </c>
@@ -2709,7 +2753,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" hidden="1">
       <c r="A66" s="4">
         <v>61</v>
       </c>
@@ -2717,7 +2761,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" hidden="1">
       <c r="A67" s="4">
         <v>62</v>
       </c>
@@ -2725,7 +2769,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" hidden="1">
       <c r="A68" s="4">
         <v>63</v>
       </c>
@@ -2733,7 +2777,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" hidden="1">
       <c r="A69" s="4">
         <v>64</v>
       </c>
@@ -2741,7 +2785,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" hidden="1">
       <c r="A70" s="4">
         <v>65</v>
       </c>
@@ -2749,7 +2793,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" hidden="1">
       <c r="A71" s="4">
         <v>66</v>
       </c>
@@ -2757,7 +2801,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" hidden="1">
       <c r="A72" s="4">
         <v>67</v>
       </c>
@@ -2765,7 +2809,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" hidden="1">
       <c r="A73" s="4">
         <v>68</v>
       </c>
@@ -2773,7 +2817,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" hidden="1">
       <c r="A74" s="4">
         <v>69</v>
       </c>
@@ -2781,63 +2825,69 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" hidden="1">
       <c r="A75" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" hidden="1">
       <c r="A76" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" hidden="1">
       <c r="A77" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" hidden="1">
       <c r="A78" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" hidden="1">
       <c r="A79" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" hidden="1">
       <c r="A80" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" hidden="1">
       <c r="A81" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" hidden="1">
       <c r="A82" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" hidden="1">
       <c r="A83" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" hidden="1">
       <c r="A84" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" hidden="1">
       <c r="A85" s="4">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:I85"/>
+  <autoFilter ref="A5:I85">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Fail"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>

--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$I$85</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
   <si>
     <t>Sl no</t>
   </si>
@@ -787,12 +787,20 @@
   <si>
     <t xml:space="preserve"> month date is not correctly displayed.</t>
   </si>
+  <si>
+    <t>With Snapooh monitor logged in with 'info' account and Monitor view app logged in with 'monitordemo' account
+1. Login to snapooh monitor
+2. capture, identify a media and upload a monitor.</t>
+  </si>
+  <si>
+    <t>Monitor view app must not receive a notification as the monitor uploaded is from a different account</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,6 +1256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1282,6 +1291,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1457,15 +1467,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="5" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1478,7 +1488,7 @@
     <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="15"/>
       <c r="D1" s="24" t="s">
         <v>135</v>
@@ -1486,7 +1496,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="15"/>
       <c r="D2" s="17" t="s">
         <v>133</v>
@@ -1497,7 +1507,7 @@
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="15"/>
       <c r="D3" s="18" t="s">
         <v>134</v>
@@ -1508,7 +1518,7 @@
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="15"/>
       <c r="D4" s="19" t="s">
         <v>136</v>
@@ -1519,7 +1529,7 @@
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1573,7 +1583,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1592,7 +1602,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1611,7 +1621,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1630,7 +1640,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1649,7 +1659,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="30">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -1670,7 +1680,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="30">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -1689,7 +1699,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="63.75">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -1716,7 +1726,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -1739,7 +1749,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -1762,7 +1772,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="51">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -1785,7 +1795,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -1808,7 +1818,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -1831,7 +1841,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25">
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -1854,7 +1864,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="39">
+    <row r="20" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -1877,7 +1887,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="90">
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -1898,7 +1908,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="90">
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -1923,7 +1933,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="45">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -1942,7 +1952,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="45">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -1963,7 +1973,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="51.75">
+    <row r="25" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -1984,7 +1994,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="51.75">
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -2009,7 +2019,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="128.25">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -2030,7 +2040,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="51.75">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -2049,7 +2059,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="64.5">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -2070,7 +2080,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="39">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -2091,7 +2101,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="141">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="141" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -2112,7 +2122,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="51.75">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -2132,7 +2142,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="60">
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -2151,7 +2161,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="75">
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -2172,7 +2182,7 @@
       </c>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="105">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -2191,7 +2201,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="105">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -2210,7 +2220,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="195">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -2229,7 +2239,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="75">
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -2248,7 +2258,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" ht="105">
+    <row r="39" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>34</v>
       </c>
@@ -2267,7 +2277,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="64.5">
+    <row r="40" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -2292,7 +2302,7 @@
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="26.25">
+    <row r="41" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -2313,7 +2323,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="51.75">
+    <row r="42" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -2334,7 +2344,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="39">
+    <row r="43" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>38</v>
       </c>
@@ -2355,7 +2365,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>39</v>
       </c>
@@ -2374,7 +2384,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="153.75">
+    <row r="45" spans="1:9" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>40</v>
       </c>
@@ -2394,7 +2404,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="75">
+    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>41</v>
       </c>
@@ -2413,7 +2423,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="39">
+    <row r="47" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>42</v>
       </c>
@@ -2436,7 +2446,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="39">
+    <row r="48" spans="1:9" ht="39" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43</v>
       </c>
@@ -2459,7 +2469,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="39">
+    <row r="49" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44</v>
       </c>
@@ -2479,7 +2489,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="26.25">
+    <row r="50" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>45</v>
       </c>
@@ -2492,7 +2502,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="60">
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -2509,7 +2519,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="90">
+    <row r="52" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="45">
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>48</v>
       </c>
@@ -2543,7 +2553,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="105">
+    <row r="54" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>49</v>
       </c>
@@ -2560,7 +2570,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="165">
+    <row r="55" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>50</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="120">
+    <row r="56" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>51</v>
       </c>
@@ -2595,7 +2605,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="60">
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>52</v>
       </c>
@@ -2612,7 +2622,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="60">
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>53</v>
       </c>
@@ -2629,7 +2639,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="45">
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>54</v>
       </c>
@@ -2643,7 +2653,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="165">
+    <row r="60" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>55</v>
       </c>
@@ -2660,7 +2670,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="165">
+    <row r="61" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>56</v>
       </c>
@@ -2677,15 +2687,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>57</v>
       </c>
       <c r="B62" s="5">
         <v>42149</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="D62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>58</v>
       </c>
@@ -2693,7 +2709,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>59</v>
       </c>
@@ -2701,7 +2717,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>60</v>
       </c>
@@ -2709,7 +2725,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>61</v>
       </c>
@@ -2717,7 +2733,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>62</v>
       </c>
@@ -2725,7 +2741,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>63</v>
       </c>
@@ -2733,7 +2749,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>64</v>
       </c>
@@ -2741,7 +2757,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>65</v>
       </c>
@@ -2749,7 +2765,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>66</v>
       </c>
@@ -2757,7 +2773,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>67</v>
       </c>
@@ -2765,7 +2781,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>68</v>
       </c>
@@ -2773,7 +2789,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>69</v>
       </c>
@@ -2781,57 +2797,57 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>80</v>
       </c>
@@ -2863,12 +2879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
+++ b/MMS/Test Cases/MONITOR_VIEW/MONITOR_VIEW1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="9915"/>
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$I$85</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="163">
   <si>
     <t>Sl no</t>
   </si>
@@ -348,9 +348,6 @@
     <t>Clicking On inbox, all captured and shared monitors should display for the selected date range.</t>
   </si>
   <si>
-    <t>"please check your email address and password " message should be display.</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -795,12 +792,39 @@
   <si>
     <t>Monitor view app must not receive a notification as the monitor uploaded is from a different account</t>
   </si>
+  <si>
+    <t>BUG ID:1941</t>
+  </si>
+  <si>
+    <t>BUG ID: 1941</t>
+  </si>
+  <si>
+    <t>BUG ID: 1738</t>
+  </si>
+  <si>
+    <t>BUG ID: 1938</t>
+  </si>
+  <si>
+    <t>BUG ID:1754</t>
+  </si>
+  <si>
+    <t>BUG ID:1753</t>
+  </si>
+  <si>
+    <t>BUG ID:1940</t>
+  </si>
+  <si>
+    <t>BUG ID:1762</t>
+  </si>
+  <si>
+    <t>BUG ID:1956</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,7 +1280,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1291,7 +1314,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1467,15 +1489,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1488,18 +1510,18 @@
     <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="C1" s="15"/>
       <c r="D1" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="C2" s="15"/>
       <c r="D2" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="22">
         <f>COUNTIF(G6:G87, "Pass")</f>
@@ -1507,10 +1529,10 @@
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="15"/>
       <c r="D3" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="21">
         <f>COUNTIF(G6:G87, "Fail")</f>
@@ -1518,10 +1540,10 @@
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="C4" s="15"/>
       <c r="D4" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="20">
         <f>COUNTIF(G6:G87, "unable to test")</f>
@@ -1529,7 +1551,7 @@
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1555,10 +1577,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="51.75" thickTop="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1578,128 +1600,128 @@
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="25.5">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="30">
       <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="30">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="63.75">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -1716,17 +1738,17 @@
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="63.75">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -1734,22 +1756,22 @@
         <v>42146</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -1764,15 +1786,15 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="51">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -1787,15 +1809,15 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -1813,12 +1835,12 @@
         <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -1836,12 +1858,12 @@
         <v>39</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="6" customFormat="1" ht="38.25">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -1856,15 +1878,15 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="39">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -1882,12 +1904,14 @@
         <v>38</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I20" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="90">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -1896,19 +1920,19 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="90">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -1923,78 +1947,82 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="45">
       <c r="A23" s="4">
         <v>18</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="45">
       <c r="A24" s="4">
         <v>19</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="51.75">
       <c r="A25" s="4">
         <v>20</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -2005,21 +2033,23 @@
         <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="128.25">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -2028,59 +2058,61 @@
         <v>36</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A28" s="4">
         <v>23</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="64.5">
       <c r="A29" s="4">
         <v>24</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="39">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -2089,195 +2121,199 @@
         <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="141" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="141">
       <c r="A31" s="4">
         <v>26</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="51.75">
       <c r="A32" s="4">
         <v>27</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="60">
       <c r="A33" s="4">
         <v>28</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="75">
       <c r="A34" s="4">
         <v>29</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="105">
       <c r="A35" s="4">
         <v>30</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
       <c r="D35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="105">
       <c r="A36" s="4">
         <v>31</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="195">
       <c r="A37" s="4">
         <v>32</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="75">
       <c r="A38" s="4">
         <v>33</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="7" customFormat="1" ht="105">
       <c r="A39" s="4">
         <v>34</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="64.5">
       <c r="A40" s="4">
         <v>35</v>
       </c>
@@ -2288,21 +2324,23 @@
         <v>31</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="26.25">
       <c r="A41" s="4">
         <v>36</v>
       </c>
@@ -2311,19 +2349,19 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="51.75">
       <c r="A42" s="4">
         <v>37</v>
       </c>
@@ -2332,19 +2370,19 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="39">
       <c r="A43" s="4">
         <v>38</v>
       </c>
@@ -2353,19 +2391,19 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="4">
         <v>39</v>
       </c>
@@ -2373,18 +2411,18 @@
         <v>42146</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>126</v>
-      </c>
       <c r="G44" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="153.75">
       <c r="A45" s="4">
         <v>40</v>
       </c>
@@ -2393,18 +2431,18 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="75">
       <c r="A46" s="4">
         <v>41</v>
       </c>
@@ -2412,18 +2450,18 @@
         <v>42149</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="G46" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="39">
       <c r="A47" s="4">
         <v>42</v>
       </c>
@@ -2434,19 +2472,19 @@
         <v>42</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="39">
       <c r="A48" s="4">
         <v>43</v>
       </c>
@@ -2464,12 +2502,14 @@
         <v>45</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="I48" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="39">
       <c r="A49" s="4">
         <v>44</v>
       </c>
@@ -2480,29 +2520,32 @@
         <v>47</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>48</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="26.25">
       <c r="A50" s="4">
         <v>45</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="60">
       <c r="A51" s="4">
         <v>46</v>
       </c>
@@ -2510,16 +2553,16 @@
         <v>42149</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="90">
       <c r="A52" s="4">
         <v>47</v>
       </c>
@@ -2527,16 +2570,16 @@
         <v>42149</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="45">
       <c r="A53" s="4">
         <v>48</v>
       </c>
@@ -2544,16 +2587,16 @@
         <v>42149</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G53" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="105">
       <c r="A54" s="4">
         <v>49</v>
       </c>
@@ -2561,16 +2604,16 @@
         <v>42149</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="165">
       <c r="A55" s="4">
         <v>50</v>
       </c>
@@ -2578,34 +2621,34 @@
         <v>42149</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="120">
       <c r="A56" s="4">
         <v>51</v>
       </c>
       <c r="B56" s="5"/>
       <c r="D56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G56" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="60">
       <c r="A57" s="4">
         <v>52</v>
       </c>
@@ -2613,16 +2656,16 @@
         <v>42149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="60">
       <c r="A58" s="4">
         <v>53</v>
       </c>
@@ -2630,16 +2673,16 @@
         <v>42149</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G58" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="45">
       <c r="A59" s="4">
         <v>54</v>
       </c>
@@ -2647,13 +2690,13 @@
         <v>42149</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="165">
       <c r="A60" s="4">
         <v>55</v>
       </c>
@@ -2661,16 +2704,16 @@
         <v>42149</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="165">
       <c r="A61" s="4">
         <v>56</v>
       </c>
@@ -2678,16 +2721,16 @@
         <v>42149</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="G61" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="120">
       <c r="A62" s="4">
         <v>57</v>
       </c>
@@ -2695,13 +2738,13 @@
         <v>42149</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F62" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="4">
         <v>58</v>
       </c>
@@ -2709,7 +2752,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="4">
         <v>59</v>
       </c>
@@ -2717,7 +2760,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="4">
         <v>60</v>
       </c>
@@ -2725,7 +2768,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="4">
         <v>61</v>
       </c>
@@ -2733,7 +2776,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="4">
         <v>62</v>
       </c>
@@ -2741,7 +2784,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="4">
         <v>63</v>
       </c>
@@ -2749,7 +2792,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="4">
         <v>64</v>
       </c>
@@ -2757,7 +2800,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="4">
         <v>65</v>
       </c>
@@ -2765,7 +2808,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="4">
         <v>66</v>
       </c>
@@ -2773,7 +2816,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="4">
         <v>67</v>
       </c>
@@ -2781,7 +2824,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="4">
         <v>68</v>
       </c>
@@ -2789,7 +2832,7 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="4">
         <v>69</v>
       </c>
@@ -2797,57 +2840,57 @@
         <v>42149</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="4">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="4">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="4">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="4">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="4">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="4">
         <v>80</v>
       </c>
@@ -2879,12 +2922,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
